--- a/inst/apps/EGLEtools/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/apps/EGLEtools/external/RMD/files/OutputFileSubtabs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/MIEGLEtools/inst/apps/MIEGLEtools/external/RMD/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/EGLEtools/inst/apps/EGLEtools/external/RMD/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="669" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{470C558D-B69B-4D2A-97B8-5690968F8AC1}"/>
+  <xr:revisionPtr revIDLastSave="674" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF07DD4A-9568-4B32-BA16-73103BE57F08}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="838" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="838" activeTab="3" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
     <sheet name="FileBuild_TTAA" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="201">
   <si>
     <t>Description</t>
   </si>
@@ -679,6 +679,9 @@
   </si>
   <si>
     <t>results_EGLE_FileBuilder_Output</t>
+  </si>
+  <si>
+    <t>WideOrMidSizeWet</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008E5B7-331F-433A-9A7C-4AD246BB0834}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1618,13 +1621,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C0A9FE-C8CE-4A36-85A6-2441939240FA}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -2245,7 +2248,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
@@ -2262,7 +2265,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
         <v>106</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="B39" t="s">
         <v>125</v>
@@ -2296,7 +2299,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s">
         <v>129</v>
@@ -2313,7 +2316,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s">
         <v>132</v>
@@ -2330,7 +2333,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="B42" t="s">
         <v>152</v>

--- a/inst/apps/EGLEtools/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/apps/EGLEtools/external/RMD/files/OutputFileSubtabs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/EGLEtools/inst/apps/EGLEtools/external/RMD/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="674" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF07DD4A-9568-4B32-BA16-73103BE57F08}"/>
+  <xr:revisionPtr revIDLastSave="675" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{566C8836-5857-4F88-B11A-7F5D4C419A5C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="838" activeTab="3" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="838" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
     <sheet name="FileBuild_TTAA" sheetId="1" r:id="rId1"/>
@@ -645,9 +645,6 @@
     <t>IBI_StreamClassification</t>
   </si>
   <si>
-    <t>List of sites assigned to IBI Stream Classes. Contains interim fields necessary for index classification.</t>
-  </si>
-  <si>
     <t>Stream class is assigned based on site characteristics. Can be manually chosen or chosen through the index classification app function (see File Builder).</t>
   </si>
   <si>
@@ -682,6 +679,9 @@
   </si>
   <si>
     <t>WideOrMidSizeWet</t>
+  </si>
+  <si>
+    <t>List of samples assigned to IBI Stream Classes. Contains interim fields necessary for index classification.</t>
   </si>
 </sst>
 </file>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008E5B7-331F-433A-9A7C-4AD246BB0834}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
@@ -1199,7 +1199,7 @@
         <v>161</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,7 @@
         <v>159</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>160</v>
@@ -1224,7 +1224,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,7 +1285,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1587,7 +1587,7 @@
         <v>161</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>161</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1606,10 +1606,10 @@
         <v>170</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1621,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C0A9FE-C8CE-4A36-85A6-2441939240FA}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:A42"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s">
         <v>106</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s">
         <v>125</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s">
         <v>129</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B41" t="s">
         <v>132</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s">
         <v>152</v>

--- a/inst/apps/EGLEtools/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/apps/EGLEtools/external/RMD/files/OutputFileSubtabs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/EGLEtools/inst/apps/EGLEtools/external/RMD/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="675" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{566C8836-5857-4F88-B11A-7F5D4C419A5C}"/>
+  <xr:revisionPtr revIDLastSave="750" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9B01A9D-4AC6-4152-9600-4DB5FAAC2A08}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="838" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="838" activeTab="5" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
     <sheet name="FileBuild_TTAA" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="193">
   <si>
     <t>Description</t>
   </si>
@@ -221,9 +221,6 @@
     <t>Excluded (non-count) taxa. Excluded from taxa richness metrics. Calculated using BioMonTools R package (https://github.com/leppott/BioMonTools).</t>
   </si>
   <si>
-    <t>Index Class</t>
-  </si>
-  <si>
     <t>Metric</t>
   </si>
   <si>
@@ -572,76 +569,12 @@
     <t>IBI_IndexCalc_Final</t>
   </si>
   <si>
-    <t>Stream Width (feet)</t>
-  </si>
-  <si>
-    <t>&lt;13</t>
-  </si>
-  <si>
-    <t>13-21.27</t>
-  </si>
-  <si>
-    <t>&gt;21.27-68.367</t>
-  </si>
-  <si>
-    <t>&gt;68.367</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;=40.067% Catchment Water or Wetland Land Cover</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
     <t>WideorMidSizeWet</t>
   </si>
   <si>
-    <r>
-      <t>&gt;40.067% Catchment Water or Wetland Land Cover</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>At or East of -83.72</t>
-  </si>
-  <si>
-    <t>% streamline slope in catchment*</t>
-  </si>
-  <si>
     <t>Stream Class</t>
   </si>
   <si>
-    <t>&lt; % 0.2976</t>
-  </si>
-  <si>
-    <t>&gt; % 0.2976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West of -83.72 </t>
-  </si>
-  <si>
-    <t>west of -83.72</t>
-  </si>
-  <si>
     <t>IBI_StreamClassification</t>
   </si>
   <si>
@@ -682,13 +615,34 @@
   </si>
   <si>
     <t>List of samples assigned to IBI Stream Classes. Contains interim fields necessary for index classification.</t>
+  </si>
+  <si>
+    <t>East of longitude -83.72</t>
+  </si>
+  <si>
+    <t>&lt; 13 ft wide*</t>
+  </si>
+  <si>
+    <t>13 - 21.27 ft wide*</t>
+  </si>
+  <si>
+    <t>21.27 - 68.367 ft wide* AND &lt;=40.067% Catchment Water or Wetland Land Cover**</t>
+  </si>
+  <si>
+    <t>[&gt; 21.27 ft wide* AND &gt;40.067% Catchment Water or Wetland Land Cover**] OR [&gt; 68.367 ft wide*]</t>
+  </si>
+  <si>
+    <t>West of longitude -83.72 AND % slope &lt; 0.2976*</t>
+  </si>
+  <si>
+    <t>West of longitude -83.72 AND % slope &gt; 0.2976*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,12 +664,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1080,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008E5B7-331F-433A-9A7C-4AD246BB0834}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,12 +1059,12 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -1127,35 +1075,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -1163,10 +1111,10 @@
         <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1174,10 +1122,10 @@
         <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1185,32 +1133,32 @@
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1233,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1455,7 +1403,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1532,7 +1480,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1562,7 +1510,7 @@
         <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
@@ -1573,10 +1521,10 @@
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1584,10 +1532,10 @@
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1595,21 +1543,21 @@
         <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1636,716 +1584,716 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
         <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
         <v>125</v>
       </c>
-      <c r="C4" t="s">
-        <v>126</v>
-      </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
         <v>135</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
         <v>136</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
         <v>141</v>
       </c>
-      <c r="C6" t="s">
-        <v>142</v>
-      </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
         <v>152</v>
       </c>
-      <c r="C7" t="s">
-        <v>153</v>
-      </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>60</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>61</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
         <v>79</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>80</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>81</v>
-      </c>
-      <c r="E9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
         <v>87</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
         <v>88</v>
-      </c>
-      <c r="D10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
         <v>103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>104</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
         <v>109</v>
-      </c>
-      <c r="C12" t="s">
-        <v>110</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
         <v>117</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
         <v>118</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" t="s">
         <v>141</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
         <v>142</v>
-      </c>
-      <c r="D14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
         <v>90</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
         <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
         <v>109</v>
-      </c>
-      <c r="C16" t="s">
-        <v>110</v>
       </c>
       <c r="D16" t="s">
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" t="s">
         <v>114</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
         <v>115</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
         <v>138</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
         <v>139</v>
-      </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
         <v>141</v>
       </c>
-      <c r="C19" t="s">
-        <v>142</v>
-      </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>64</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
         <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
         <v>83</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>84</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>85</v>
-      </c>
-      <c r="E21" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
         <v>109</v>
-      </c>
-      <c r="C22" t="s">
-        <v>110</v>
       </c>
       <c r="D22" t="s">
         <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
-        <v>118</v>
-      </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" t="s">
         <v>141</v>
       </c>
-      <c r="C24" t="s">
-        <v>142</v>
-      </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
         <v>148</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
         <v>149</v>
-      </c>
-      <c r="D25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
         <v>94</v>
-      </c>
-      <c r="B26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" t="s">
         <v>99</v>
-      </c>
-      <c r="C27" t="s">
-        <v>100</v>
       </c>
       <c r="D27" t="s">
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
         <v>122</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" t="s">
         <v>123</v>
-      </c>
-      <c r="D28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" t="s">
         <v>141</v>
       </c>
-      <c r="C29" t="s">
-        <v>142</v>
-      </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" t="s">
         <v>148</v>
       </c>
-      <c r="C30" t="s">
-        <v>149</v>
-      </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s">
         <v>152</v>
       </c>
-      <c r="C31" t="s">
-        <v>153</v>
-      </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
         <v>75</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" t="s">
         <v>76</v>
-      </c>
-      <c r="D32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
         <v>96</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
         <v>97</v>
-      </c>
-      <c r="D33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
         <v>99</v>
-      </c>
-      <c r="C34" t="s">
-        <v>100</v>
       </c>
       <c r="D34" t="s">
         <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" t="s">
         <v>117</v>
       </c>
-      <c r="C35" t="s">
-        <v>118</v>
-      </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" t="s">
         <v>152</v>
       </c>
-      <c r="C36" t="s">
-        <v>153</v>
-      </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
         <v>72</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" t="s">
         <v>73</v>
-      </c>
-      <c r="D37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
         <v>106</v>
-      </c>
-      <c r="C38" t="s">
-        <v>107</v>
       </c>
       <c r="D38" t="s">
         <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" t="s">
         <v>125</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
         <v>126</v>
-      </c>
-      <c r="D39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
         <v>129</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" t="s">
         <v>130</v>
-      </c>
-      <c r="D40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
         <v>132</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
         <v>133</v>
-      </c>
-      <c r="D41" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" t="s">
         <v>152</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" t="s">
         <v>153</v>
-      </c>
-      <c r="D42" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2363,7 +2311,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,15 +2322,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>59</v>
@@ -2390,7 +2338,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3">
         <v>48</v>
@@ -2398,7 +2346,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>45</v>
@@ -2406,7 +2354,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B5">
         <v>45</v>
@@ -2414,7 +2362,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>46</v>
@@ -2422,7 +2370,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7">
         <v>42</v>
@@ -2430,7 +2378,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>46</v>
@@ -2443,72 +2391,56 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D00E53E-2449-42CF-82C6-750D6B129363}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>171</v>
       </c>
-      <c r="B1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" t="s">
-        <v>177</v>
+        <v>170</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2518,56 +2450,49 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECBEDB6-DEAA-4E7C-95C8-025E1B38CE41}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
